--- a/2012.xlsx
+++ b/2012.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saranegri/Desktop/MASTER TESI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FA9B8A-2F86-1D42-A059-A64D9C8B8120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F974AFF2-FECD-2F4A-AE6F-05ECDB64FDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="1000" windowWidth="17320" windowHeight="15920" xr2:uid="{574F301E-3A31-D245-9CC2-4D6BB714125B}"/>
+    <workbookView xWindow="12140" yWindow="1000" windowWidth="17320" windowHeight="15920" xr2:uid="{574F301E-3A31-D245-9CC2-4D6BB714125B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1134,9 +1134,8 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFCE9178"/>
-      <name val="Courier New"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1582,7 +1581,7 @@
   <dimension ref="A1:CA269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1659,7 +1658,7 @@
     <col min="79" max="79" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:79" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="7">
         <v>2012</v>
       </c>
